--- a/1_problem_list.xlsx
+++ b/1_problem_list.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Catg" sheetId="1" r:id="rId1"/>
     <sheet name="HF" sheetId="3" r:id="rId2"/>
+    <sheet name="HF2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t xml:space="preserve">search for a range </t>
   </si>
@@ -320,9 +321,6 @@
     <t xml:space="preserve">find the celebrity </t>
   </si>
   <si>
-    <t>load balancer(not done, c code available, do it later)</t>
-  </si>
-  <si>
     <t xml:space="preserve">missing ranges </t>
   </si>
   <si>
@@ -356,9 +354,6 @@
     <t xml:space="preserve">bianry tree vertical order traversal </t>
   </si>
   <si>
-    <t xml:space="preserve">find leaves of binary tree </t>
-  </si>
-  <si>
     <t xml:space="preserve">3sum closet </t>
   </si>
   <si>
@@ -384,6 +379,183 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>edit distance II</t>
+  </si>
+  <si>
+    <t>load balancer</t>
+  </si>
+  <si>
+    <t>guess number higher or lower II</t>
+  </si>
+  <si>
+    <t>find leaves of binary tree</t>
+  </si>
+  <si>
+    <t>nearest exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letter combination of a phone number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expression add operator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectangle overlap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k closet point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">window sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">largest palindrome </t>
+  </si>
+  <si>
+    <t>course schedule II</t>
+  </si>
+  <si>
+    <t>minimum spanning tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high five </t>
+  </si>
+  <si>
+    <t>maximum subtree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closet number in sorted array </t>
+  </si>
+  <si>
+    <t>last position of target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search a 2d matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum number in mountain sequence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">find minimum in rotated sorted array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">search in a big sorted array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first bad version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectangle enclosing balck pixels </t>
+  </si>
+  <si>
+    <t>smallest rectangle enclosing balck pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree preorder traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree inorder traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree postorder traversal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowest common ancestor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree maximum path sum II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary tree level order traversal </t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permutation </t>
+  </si>
+  <si>
+    <t>permutation II</t>
+  </si>
+  <si>
+    <t>N-queens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination sum </t>
+  </si>
+  <si>
+    <t>combination sum II</t>
+  </si>
+  <si>
+    <t>subsets II</t>
+  </si>
+  <si>
+    <t>word break II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word ladder II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY SERACH  </t>
+  </si>
+  <si>
+    <t>BINARY TREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search a 2D matrix II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparse matrix multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add two numbers </t>
+  </si>
+  <si>
+    <t>pow(x, n)</t>
+  </si>
+  <si>
+    <t>add strings</t>
+  </si>
+  <si>
+    <t>add two numbers II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power of two </t>
+  </si>
+  <si>
+    <t>power of three</t>
+  </si>
+  <si>
+    <t>power of four</t>
+  </si>
+  <si>
+    <t>o(1) check power of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast power </t>
+  </si>
+  <si>
+    <t>super pow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factorization combination </t>
+  </si>
+  <si>
+    <t>word squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surrounded regions </t>
   </si>
 </sst>
 </file>
@@ -405,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -437,11 +615,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,13 +938,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1384,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1392,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1608,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1632,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1648,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1672,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1537,15 +1716,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1557,14 +1736,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1613,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1840,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1848,440 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,82 +2321,168 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>113</v>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1_problem_list.xlsx
+++ b/1_problem_list.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Catg" sheetId="1" r:id="rId1"/>
     <sheet name="HF" sheetId="3" r:id="rId2"/>
     <sheet name="HF2" sheetId="4" r:id="rId3"/>
+    <sheet name="TP" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
   <si>
     <t xml:space="preserve">search for a range </t>
   </si>
@@ -556,13 +557,166 @@
   </si>
   <si>
     <t xml:space="preserve">surrounded regions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k closet pointer </t>
+  </si>
+  <si>
+    <t>find k closet elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliding window unique elements sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum size subarray sum </t>
+  </si>
+  <si>
+    <t>longest substring without repeating characters</t>
+  </si>
+  <si>
+    <t>longest substring with at most k distinct characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum window substring </t>
+  </si>
+  <si>
+    <t>linked list cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked list cycle II </t>
+  </si>
+  <si>
+    <t>implement strstr()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge sorted array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the smallest difference </t>
+  </si>
+  <si>
+    <t>two sum ii - input array is sorted</t>
+  </si>
+  <si>
+    <t>3sum</t>
+  </si>
+  <si>
+    <t>3sum closet</t>
+  </si>
+  <si>
+    <t>3sum smallest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triangle count </t>
+  </si>
+  <si>
+    <t>4sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trapping rain water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">container with most water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting - Sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting - Array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting  -List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">partition list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">palindrome linked list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove nth node from end of list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forwarding - Tail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove duplicates from sorted array </t>
+  </si>
+  <si>
+    <t>remove duplicates from sorted array ii</t>
+  </si>
+  <si>
+    <t>move zeroes</t>
+  </si>
+  <si>
+    <t>sort letter by case</t>
+  </si>
+  <si>
+    <t>Forwarding - Window</t>
+  </si>
+  <si>
+    <t>Forwarding - Fast and Slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Arrays </t>
+  </si>
+  <si>
+    <t>valid palindrome I / II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more </t>
+  </si>
+  <si>
+    <t>longest palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course schedule </t>
+  </si>
+  <si>
+    <t>course schedule ii</t>
+  </si>
+  <si>
+    <t>high five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house robber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">house robber ii </t>
+  </si>
+  <si>
+    <t>house robber iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum swaps to make sequences increasing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">domino and tromino tiling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min coset climbing  stairs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum ASCII delete sum for two strings </t>
+  </si>
+  <si>
+    <t>delete operation for two strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum number of arrows to burst balloons </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +730,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +763,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -615,18 +782,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3887C8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -927,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,4 +2659,448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>26</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>27</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>28</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
+        <v>29</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <v>30</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
+        <v>33</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
+        <v>35</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="5">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="5">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="5">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5">
+        <v>40</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="5">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="5">
+        <v>42</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>